--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Consultation liste client.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Consultation liste client.xlsx
@@ -105,9 +105,6 @@
     <t>Gunter</t>
   </si>
   <si>
-    <t>Consultation de la liste des client</t>
-  </si>
-  <si>
     <t>Requete</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Résultat</t>
+  </si>
+  <si>
+    <t>Consultation de la liste des clients</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,22 +954,22 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
